--- a/biology/Zoologie/Cephalotes_emeryi/Cephalotes_emeryi.xlsx
+++ b/biology/Zoologie/Cephalotes_emeryi/Cephalotes_emeryi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes emeryi est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes emeryi est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est native du Venezuela, des petites Antilles et de l'état de Quintana roo au Mexique où elle a été recensée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est native du Venezuela, des petites Antilles et de l'état de Quintana roo au Mexique où elle a été recensée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle fut décrite et classifiée pour la première fois par l'entomologiste suisse Auguste Forel en 1912.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
